--- a/resultados/Experimento 7 Q-20.xlsx
+++ b/resultados/Experimento 7 Q-20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Documents\GitHub\CMSTP-TW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1522DBD5-63E9-443A-9B99-3D95B53D3E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CCC1F7-951F-4177-98A8-CD4CFE653D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,6 +231,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,9 +582,9 @@
       <selection activeCell="D57" sqref="D2:D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,21 +598,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
-        <v>497.63111617334391</v>
+        <v>488.99943159674149</v>
       </c>
       <c r="C2">
-        <v>507.43338742494433</v>
+        <v>502.45080298986562</v>
       </c>
       <c r="D2">
-        <v>22.861667586397381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.01379094477743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -619,13 +620,13 @@
         <v>480.97260397377039</v>
       </c>
       <c r="C3">
-        <v>487.01550387486469</v>
+        <v>487.89238965176548</v>
       </c>
       <c r="D3">
-        <v>28.99798524528742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.810522188432511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -633,27 +634,27 @@
         <v>473.75940053817402</v>
       </c>
       <c r="C4">
-        <v>485.89713388093179</v>
+        <v>482.97552099682758</v>
       </c>
       <c r="D4">
-        <v>32.449673051200797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31.203943504765629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5">
-        <v>461.10087960068131</v>
+        <v>461.37345696901389</v>
       </c>
       <c r="C5">
-        <v>466.78704770481829</v>
+        <v>467.01802993109487</v>
       </c>
       <c r="D5">
-        <v>27.50417074356228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27.5516788855195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -661,27 +662,27 @@
         <v>482.94725475575922</v>
       </c>
       <c r="C6">
-        <v>493.77600596700751</v>
+        <v>495.60195196274691</v>
       </c>
       <c r="D6">
-        <v>25.994921912765129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.760661000572149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>489.45136752817899</v>
+        <v>482.33463989386991</v>
       </c>
       <c r="C7">
-        <v>496.54422650139549</v>
+        <v>495.72489550967077</v>
       </c>
       <c r="D7">
-        <v>26.626209683762859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.196109268441791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -689,27 +690,27 @@
         <v>481.14015435379588</v>
       </c>
       <c r="C8">
-        <v>488.79558472628707</v>
+        <v>493.09797582746819</v>
       </c>
       <c r="D8">
-        <v>29.39501858684234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.834647222235802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
-        <v>470.45689548456482</v>
+        <v>478.72228963920969</v>
       </c>
       <c r="C9">
-        <v>486.50669833759719</v>
+        <v>489.11772447978262</v>
       </c>
       <c r="D9">
-        <v>33.48778344434686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30.409491728805001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -717,83 +718,83 @@
         <v>458.32817186249002</v>
       </c>
       <c r="C10">
-        <v>473.3503745672183</v>
+        <v>475.6778525525923</v>
       </c>
       <c r="D10">
-        <v>35.710565094091002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37.311846936307838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11">
-        <v>576.62047760646328</v>
+        <v>574.81051835609662</v>
       </c>
       <c r="C11">
-        <v>584.62062875709876</v>
+        <v>584.81413481921413</v>
       </c>
       <c r="D11">
-        <v>24.734471199847761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.777253757975991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
-        <v>568.54877778872378</v>
+        <v>567.38304672403751</v>
       </c>
       <c r="C12">
-        <v>577.27447029514337</v>
+        <v>574.88016417907909</v>
       </c>
       <c r="D12">
-        <v>27.803893820801751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.584541189111771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
       <c r="B13">
-        <v>557.69121852863429</v>
+        <v>565.84502132648799</v>
       </c>
       <c r="C13">
-        <v>575.11574619787655</v>
+        <v>576.1330248727952</v>
       </c>
       <c r="D13">
-        <v>33.682838930934658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30.310801153443759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
       <c r="B14">
-        <v>575.61537059222644</v>
+        <v>575.34340014583029</v>
       </c>
       <c r="C14">
-        <v>579.42976153727193</v>
+        <v>578.36720417585536</v>
       </c>
       <c r="D14">
-        <v>35.240358440577992</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34.409919887036082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>564.63389947038684</v>
+        <v>563.38412849647875</v>
       </c>
       <c r="C15">
-        <v>573.02873834303102</v>
+        <v>576.19518479175258</v>
       </c>
       <c r="D15">
-        <v>39.953365744603801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33.898694937303659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -801,27 +802,27 @@
         <v>564.050717219278</v>
       </c>
       <c r="C16">
-        <v>578.72147203512702</v>
+        <v>572.70274217136375</v>
       </c>
       <c r="D16">
-        <v>30.330908756610011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30.31785074081272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>546.10340820295517</v>
+        <v>547.49995781215966</v>
       </c>
       <c r="C17">
-        <v>563.79344741409773</v>
+        <v>561.0506943639715</v>
       </c>
       <c r="D17">
-        <v>37.160557713685563</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31.215808962285521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -829,13 +830,13 @@
         <v>567.228773808656</v>
       </c>
       <c r="C18">
-        <v>584.01184546945535</v>
+        <v>579.46365821859729</v>
       </c>
       <c r="D18">
-        <v>30.640990677895029</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29.206460993364448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -843,83 +844,83 @@
         <v>816.74679196022373</v>
       </c>
       <c r="C19">
-        <v>831.55210999066935</v>
+        <v>833.86761046687809</v>
       </c>
       <c r="D19">
-        <v>24.09191589476541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.011569406278429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
-        <v>723.53785842171999</v>
+        <v>725.30141376355709</v>
       </c>
       <c r="C20">
-        <v>762.62861447105342</v>
+        <v>779.79482836362183</v>
       </c>
       <c r="D20">
-        <v>34.504219625052073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31.049707723036409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21">
-        <v>684.10463603005633</v>
+        <v>665.59652759952803</v>
       </c>
       <c r="C21">
-        <v>702.62967993593134</v>
+        <v>701.24274214324726</v>
       </c>
       <c r="D21">
-        <v>37.626403764262797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34.382569528743623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
       <c r="B22">
-        <v>608.60015877115643</v>
+        <v>616.03829698964523</v>
       </c>
       <c r="C22">
-        <v>626.58045995620398</v>
+        <v>631.08253778982578</v>
       </c>
       <c r="D22">
-        <v>28.884075468359519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28.01740807574242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
-        <v>730.25438999411404</v>
+        <v>728.94453169928295</v>
       </c>
       <c r="C23">
-        <v>740.81820989493212</v>
+        <v>744.67083903742537</v>
       </c>
       <c r="D23">
-        <v>24.057078845240181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.813430938124661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24">
-        <v>695.08652115743132</v>
+        <v>702.40869941709616</v>
       </c>
       <c r="C24">
-        <v>713.83205899159896</v>
+        <v>713.49699692800982</v>
       </c>
       <c r="D24">
-        <v>28.436703124642371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.50487103760242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -927,27 +928,27 @@
         <v>644.47049721825169</v>
       </c>
       <c r="C25">
-        <v>653.66832119624189</v>
+        <v>656.15553819732008</v>
       </c>
       <c r="D25">
-        <v>31.38191624837928</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30.18297082465142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
       <c r="B26">
-        <v>608.27096879183318</v>
+        <v>612.16651679488109</v>
       </c>
       <c r="C26">
-        <v>625.50687639438024</v>
+        <v>627.19192820608532</v>
       </c>
       <c r="D26">
-        <v>28.250740654300898</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27.171243716031309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -955,41 +956,41 @@
         <v>651.40525340817555</v>
       </c>
       <c r="C27">
-        <v>662.9270863822743</v>
+        <v>660.88424708654043</v>
       </c>
       <c r="D27">
-        <v>38.79101941194385</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37.326091570779681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28">
-        <v>605.86720019026143</v>
+        <v>611.52179563756181</v>
       </c>
       <c r="C28">
-        <v>641.12264473328946</v>
+        <v>642.44010544913306</v>
       </c>
       <c r="D28">
-        <v>28.872826638398688</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27.88604360390455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
-        <v>632.58152000297912</v>
+        <v>632.58152000297923</v>
       </c>
       <c r="C29">
-        <v>643.54557637136691</v>
+        <v>643.62157248313792</v>
       </c>
       <c r="D29">
-        <v>26.269301656400781</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.184972852468491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -997,181 +998,181 @@
         <v>588.46821505519063</v>
       </c>
       <c r="C30">
-        <v>597.34041497465228</v>
+        <v>595.00919017604576</v>
       </c>
       <c r="D30">
-        <v>25.527003559563308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.94152948670089</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
       <c r="B31">
-        <v>734.0538263553683</v>
+        <v>732.53583144676804</v>
       </c>
       <c r="C31">
-        <v>745.5481822826614</v>
+        <v>743.2727091597875</v>
       </c>
       <c r="D31">
-        <v>24.59234976302832</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.817486251331861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32">
-        <v>709.3264004078668</v>
+        <v>688.91830245670849</v>
       </c>
       <c r="C32">
-        <v>722.1186494758183</v>
+        <v>720.83360676423808</v>
       </c>
       <c r="D32">
-        <v>28.03985185697675</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.696147607266902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
       <c r="B33">
-        <v>638.58784911836574</v>
+        <v>635.8988816292449</v>
       </c>
       <c r="C33">
-        <v>647.85538255214749</v>
+        <v>646.49110656523806</v>
       </c>
       <c r="D33">
-        <v>32.62643552576192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31.432429530099039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34">
-        <v>622.39321941051367</v>
+        <v>617.36876412652305</v>
       </c>
       <c r="C34">
-        <v>639.3451259549812</v>
+        <v>631.07737959117708</v>
       </c>
       <c r="D34">
-        <v>23.309026846475899</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.104820668883619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35">
-        <v>680.38511318971803</v>
+        <v>682.12557976974165</v>
       </c>
       <c r="C35">
-        <v>716.26555044850716</v>
+        <v>716.71080037163472</v>
       </c>
       <c r="D35">
-        <v>24.604405212868009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.474216526187959</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
       <c r="B36">
-        <v>658.25962120778524</v>
+        <v>659.92217920274516</v>
       </c>
       <c r="C36">
-        <v>694.7480262380484</v>
+        <v>699.2089374687846</v>
       </c>
       <c r="D36">
-        <v>29.128814840037371</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28.510557776503269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
       <c r="B37">
-        <v>640.56015463637482</v>
+        <v>640.96225166562749</v>
       </c>
       <c r="C37">
-        <v>657.82068812319278</v>
+        <v>656.12438902974998</v>
       </c>
       <c r="D37">
-        <v>22.845745175704359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.084872660785908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38">
-        <v>609.42608024785272</v>
+        <v>612.19096961730804</v>
       </c>
       <c r="C38">
-        <v>618.98353402613247</v>
+        <v>619.67882582486232</v>
       </c>
       <c r="D38">
-        <v>26.145117004914209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.729326842352751</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39">
-        <v>653.48716048364906</v>
+        <v>652.46775744032345</v>
       </c>
       <c r="C39">
-        <v>658.26907383637626</v>
+        <v>657.68873581601724</v>
       </c>
       <c r="D39">
-        <v>26.393500429624691</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.085143118724229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40">
-        <v>642.14843727212212</v>
+        <v>652.22403180303081</v>
       </c>
       <c r="C40">
-        <v>661.34554777395965</v>
+        <v>666.29224612387247</v>
       </c>
       <c r="D40">
-        <v>30.12755240523256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27.59508835691959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>592.61375249845173</v>
+        <v>594.01379112591962</v>
       </c>
       <c r="C41">
-        <v>597.42464510875527</v>
+        <v>599.2281160569737</v>
       </c>
       <c r="D41">
-        <v>24.946749692969021</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.63034885935485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>732.68238116443695</v>
+        <v>733.90981138345683</v>
       </c>
       <c r="C42">
-        <v>744.88826429462711</v>
+        <v>748.41293891420719</v>
       </c>
       <c r="D42">
-        <v>28.671428001997992</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.074951921589669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1179,206 +1180,206 @@
         <v>675.35921154881316</v>
       </c>
       <c r="C43">
-        <v>696.10740585732697</v>
+        <v>695.92172086495884</v>
       </c>
       <c r="D43">
-        <v>36.931850599031897</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35.965120713412759</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
-        <v>657.51932174095487</v>
+        <v>656.50873746306024</v>
       </c>
       <c r="C44">
-        <v>676.17708457122467</v>
+        <v>671.85620842880803</v>
       </c>
       <c r="D44">
-        <v>40.707963444432252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37.69210533127189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
       <c r="B45">
-        <v>620.66037056553046</v>
+        <v>612.83653315835443</v>
       </c>
       <c r="C45">
-        <v>636.6686630575407</v>
+        <v>645.16930716323009</v>
       </c>
       <c r="D45">
-        <v>30.404696682188661</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29.231654535979029</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46">
-        <v>708.11725988442686</v>
+        <v>707.05845762743411</v>
       </c>
       <c r="C46">
-        <v>723.74634852709937</v>
+        <v>729.14375626015374</v>
       </c>
       <c r="D46">
-        <v>47.264164974354209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45.681805193983017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
       <c r="B47">
-        <v>676.97798302567821</v>
+        <v>666.98855684205682</v>
       </c>
       <c r="C47">
-        <v>693.58102831745487</v>
+        <v>692.61587483839003</v>
       </c>
       <c r="D47">
-        <v>43.20714960875921</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42.070925488136709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
       <c r="B48">
-        <v>657.03880572663559</v>
+        <v>649.36421434705994</v>
       </c>
       <c r="C48">
-        <v>683.43184147369971</v>
+        <v>687.21472651060253</v>
       </c>
       <c r="D48">
-        <v>33.364115878986198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34.026363306120039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49">
-        <v>621.68712909459941</v>
+        <v>600.83591654083284</v>
       </c>
       <c r="C49">
-        <v>637.28993580235624</v>
+        <v>632.24005669377561</v>
       </c>
       <c r="D49">
-        <v>32.876170410681517</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35.106517827510842</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50">
-        <v>758.86564437050265</v>
+        <v>756.71337889960819</v>
       </c>
       <c r="C50">
-        <v>777.94800130351064</v>
+        <v>778.67559911843364</v>
       </c>
       <c r="D50">
-        <v>26.83354882607237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.028582458756869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
       <c r="B51">
-        <v>679.53865380456955</v>
+        <v>688.90916784875913</v>
       </c>
       <c r="C51">
-        <v>700.14687105535052</v>
+        <v>700.85205454007973</v>
       </c>
       <c r="D51">
-        <v>38.347379373013972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35.20109500288963</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
       <c r="B52">
-        <v>648.95034704749742</v>
+        <v>642.85229844774176</v>
       </c>
       <c r="C52">
-        <v>656.82273582071537</v>
+        <v>658.67874601256756</v>
       </c>
       <c r="D52">
-        <v>33.628511227574201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33.615571731142701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53">
-        <v>603.96256163504836</v>
+        <v>604.30837362089744</v>
       </c>
       <c r="C53">
-        <v>628.36302786869544</v>
+        <v>626.53680248928254</v>
       </c>
       <c r="D53">
-        <v>27.914199564047159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28.68048770483583</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
       <c r="B54">
-        <v>697.999274398225</v>
+        <v>705.29757628468906</v>
       </c>
       <c r="C54">
-        <v>719.24148866778376</v>
+        <v>725.82424390768904</v>
       </c>
       <c r="D54">
-        <v>28.42933704582974</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.768930076807742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55">
-        <v>726.21577192947848</v>
+        <v>707.87778722164057</v>
       </c>
       <c r="C55">
-        <v>747.36906802333749</v>
+        <v>733.72925568916014</v>
       </c>
       <c r="D55">
-        <v>32.379720653360707</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31.75138515718281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56">
-        <v>659.62229873200988</v>
+        <v>663.36876715916173</v>
       </c>
       <c r="C56">
-        <v>681.40347086154736</v>
+        <v>684.58890154069218</v>
       </c>
       <c r="D56">
-        <v>35.969110043067488</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34.498750840499987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>40</v>
       </c>
       <c r="B57">
-        <v>595.6197453663367</v>
+        <v>600.38422934399614</v>
       </c>
       <c r="C57">
-        <v>602.82645972244995</v>
+        <v>611.88045260159527</v>
       </c>
       <c r="D57">
-        <v>27.96779419416562</v>
+        <v>27.699641423858701</v>
       </c>
     </row>
   </sheetData>
